--- a/Document/UserGuide for Map.xlsx
+++ b/Document/UserGuide for Map.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="936"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="936" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="地图使用向导" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="194">
   <si>
     <t>add</t>
   </si>
@@ -251,19 +251,493 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>根据设备的移动会动态的显示位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到当前位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触屏设备双指触摸可旋转地图，并在右上角显示指北针的图标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地图右下角显示缩放地图的图标【＋】【-】。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击图标【＋】可放大地图，【-】可缩小地图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地图的左下角显示回到当前位置的图标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一些常用类型的POI（例：WC、出入口、电梯、美食）进行快捷搜索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消该目类的检索则再次点击该目类的图标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近没有要检索的目类时，会有提示‘附近没有***’。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热力图：点击显示或隐藏实时人流信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击检索图标出现可检索的目类，点击该目类则显示检索到的POI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导览图标出现下级菜单：热力图、导览图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击测距图标显示测距的具体功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始：打开测距功能并开始测距，单击选择起点和中间点，双击结束并显示最终距离。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止：停止测距功能但保留已测距的结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除：清除已测距的结果但不停止测距功能，可以继续测距。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在左侧靠边显示导航条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择定位点：点击该图标后快捷选择定位点作为起点或终点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动选点：点击该图标后可在地图上选择一个POI作为起点或终点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框后的【x】清空输入框的内容，并重新选择起点或终点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当起点和终点都确定时，自动显示路径规划的最优方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起点和终点不能相同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回按钮结束路径规划功能，并隐藏路径规划的弹出框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化地图后，可为自己选择一些POI作为收藏点以便再次访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索点：未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏点：未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回导航条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击路线的图标出现路径规划的弹出框，开启本功能并默认定位点所在位置为起点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击POI出现信息框，其中【去这里】【从这出发】，开启本功能并默认此POI为起点或终点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（测距或路径规划开启状态下除外）</t>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击收藏图标，打开收藏图层，显示已收藏的POI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导览图：点击显示或隐藏导览图图层。（未实现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开收藏图层情况下，可开启本功能并设置收藏的POI为起点或终点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径规划的弹出框中，输入框后的两个图标分别选择定位点或手动选点作为起终点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径规划功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击POI出现信息框，其中收藏按钮，可设置收藏。（测距或路径规划开启状态下除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化地图后，点击POI出现信息框，包含POI的具体信息、收藏按钮、路径规划选点按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测距或路径规划开启状态下，此功能失效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏路线按钮可收藏规划的路线以便再次使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开路径规划方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开路径规划方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径规划功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图使用向导</t>
+  </si>
+  <si>
+    <t>编写者：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨楼层路径规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3维切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3维切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框内右上角的【x】可关闭此信息框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层选择
+电子围栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增楼层选择和电子围栏功能介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击图标会以当前位置为地图中心点、切换到当前位置所在的楼层展示地图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到当前位置的功能更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>初始化的地图会显示在定位的当前位置上。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据设备的移动会动态的显示位置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回到当前位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触屏设备双指触摸可旋转地图，并在右上角显示指北针的图标。</t>
+    <t>初始化的地图会默认显示1楼的地图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层选择的图标显示在地图右侧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc端滑动鼠标、移动端手指滑动可查看所有存在的楼层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击想要展示的楼层图标后会切换到相应楼层的地图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回导航条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏已显示的情况下：点击显示关闭电子围栏的显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏未显示的情况下：点击显示展示当前楼层的电子围栏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,79 +745,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在地图右下角显示缩放地图的图标【＋】【-】。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击图标【＋】可放大地图，【-】可缩小地图。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在地图的左下角显示回到当前位置的图标。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击图标会以当前位置为地图中心点展示地图。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对一些常用类型的POI（例：WC、出入口、电梯、美食）进行快捷搜索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消该目类的检索则再次点击该目类的图标。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附近没有要检索的目类时，会有提示‘附近没有***’。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热力图：点击显示或隐藏实时人流信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测距</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击检索图标出现可检索的目类，点击该目类则显示检索到的POI。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导览图标出现下级菜单：热力图、导览图。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击测距图标显示测距的具体功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始：打开测距功能并开始测距，单击选择起点和中间点，双击结束并显示最终距离。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止：停止测距功能但保留已测距的结果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除：清除已测距的结果但不停止测距功能，可以继续测距。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路线</t>
+    <t>点击新增图标进入电子围栏的编辑状态（add）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有未保存的编辑时，进入编辑状态前会提示是否保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改图标进入电子围栏的编辑状态（upd）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除图标进入电子围栏的编辑状态（rm）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -351,269 +765,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在左侧靠边显示导航条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择定位点：点击该图标后快捷选择定位点作为起点或终点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动选点：点击该图标后可在地图上选择一个POI作为起点或终点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框后的【x】清空输入框的内容，并重新选择起点或终点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当起点和终点都确定时，自动显示路径规划的最优方案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起点和终点不能相同。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回按钮结束路径规划功能，并隐藏路径规划的弹出框。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化地图后，可为自己选择一些POI作为收藏点以便再次访问。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索点：未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏点：未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回导航条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击路线的图标出现路径规划的弹出框，开启本功能并默认定位点所在位置为起点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击POI出现信息框，其中【去这里】【从这出发】，开启本功能并默认此POI为起点或终点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（测距或路径规划开启状态下除外）</t>
+    <t>通过绘制polygon进行新增电子围栏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击收藏图标，打开收藏图层，显示已收藏的POI。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导览图：点击显示或隐藏导览图图层。（未实现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开收藏图层情况下，可开启本功能并设置收藏的POI为起点或终点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径规划的弹出框中，输入框后的两个图标分别选择定位点或手动选点作为起终点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径规划功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击POI出现信息框，其中收藏按钮，可设置收藏。（测距或路径规划开启状态下除外）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化地图后，点击POI出现信息框，包含POI的具体信息、收藏按钮、路径规划选点按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测距或路径规划开启状态下，此功能失效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏路线按钮可收藏规划的路线以便再次使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开路径规划方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开路径规划方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径规划功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图使用向导</t>
-  </si>
-  <si>
-    <t>编写者：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼层选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子围栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子围栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨楼层路径规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/3维切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/3维切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海懋特物联网有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框内右上角的【x】可关闭此信息框。</t>
+    <t>选中某一电子围栏后进行拖动更改形状。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中某一电子围栏后弹出是否删除的提示框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击停止图标退出电子围栏的编辑状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有未保存的编辑时，退出编辑状态前会提示是否保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑状态下，有未保存的编辑时，立即进行保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存并不会退出编辑状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懋特（上海）物联网科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +1004,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1137,12 +1321,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1225,6 +1525,9 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1233,60 +1536,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1300,7 +1549,121 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1592,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1743,7 +2106,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="14"/>
       <c r="J8" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="14"/>
@@ -1788,7 +2151,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="36" t="str">
         <f>变更履历!D7</f>
-        <v>v1.0.0</v>
+        <v>v1.0.2</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -1957,10 +2320,10 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
@@ -1982,7 +2345,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J19" s="40" t="s">
         <v>1</v>
@@ -1991,8 +2354,8 @@
       <c r="L19" s="40"/>
       <c r="M19" s="2"/>
       <c r="N19" s="33"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -2007,18 +2370,18 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="42">
+        <v>128</v>
+      </c>
+      <c r="J20" s="43">
         <f>变更履历!N7</f>
-        <v>42838</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+        <v>42872</v>
+      </c>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="2"/>
       <c r="N20" s="33"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -2252,10 +2615,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
-  <dimension ref="B1:T17"/>
+  <dimension ref="B1:T19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2358,32 +2721,32 @@
     <row r="6" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="56"/>
+      <c r="J6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46" t="s">
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46" t="s">
+      <c r="O6" s="56"/>
+      <c r="P6" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="59"/>
+      <c r="Q6" s="57"/>
       <c r="R6" s="14"/>
       <c r="S6" s="2"/>
       <c r="T6" s="7"/>
@@ -2391,137 +2754,161 @@
     <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="62">
-        <v>42838</v>
-      </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="49" t="s">
+      <c r="D7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="78"/>
+      <c r="F7" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="76"/>
+      <c r="H7" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="71">
+        <v>42872</v>
+      </c>
+      <c r="O7" s="72"/>
+      <c r="P7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="14"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="42"/>
       <c r="S7" s="2"/>
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="14"/>
+      <c r="D8" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="84"/>
+      <c r="J8" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="86">
+        <v>42872</v>
+      </c>
+      <c r="O8" s="87"/>
+      <c r="P8" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="42"/>
       <c r="S8" s="2"/>
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="19"/>
+      <c r="D9" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="68"/>
+      <c r="F9" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="61">
+        <v>42838</v>
+      </c>
+      <c r="O9" s="61"/>
+      <c r="P9" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="2"/>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="19"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="14"/>
       <c r="S10" s="2"/>
       <c r="T10" s="7"/>
     </row>
-    <row r="11" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="61"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="19"/>
       <c r="S11" s="2"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="60"/>
       <c r="R12" s="19"/>
       <c r="S12" s="2"/>
       <c r="T12" s="7"/>
@@ -2529,143 +2916,197 @@
     <row r="13" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="19"/>
       <c r="S13" s="2"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="54"/>
       <c r="R14" s="19"/>
       <c r="S14" s="2"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
       <c r="S15" s="2"/>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="54">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
     <mergeCell ref="J11:M11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:M12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N13:O13"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 C3:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F9 C3:C16">
       <formula1>"add,update,delete"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O14" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="O16" location="目录!A1" display="返回目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2675,11 +3116,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:T39"/>
+  <dimension ref="B1:T42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2808,7 +3247,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -2906,10 +3345,10 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -2931,10 +3370,10 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
@@ -2958,7 +3397,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -3178,14 +3617,14 @@
       <c r="B22" s="6"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3203,14 +3642,14 @@
       <c r="B23" s="6"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3231,10 +3670,10 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="18" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3254,13 +3693,13 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="18"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3279,14 +3718,18 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="31"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="32"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -3300,18 +3743,14 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>117</v>
-      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -3325,15 +3764,15 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="F28" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="18"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="18"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3352,10 +3791,10 @@
       <c r="E29" s="2"/>
       <c r="F29" s="16"/>
       <c r="G29" s="18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="18"/>
@@ -3375,13 +3814,13 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="18"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="18"/>
       <c r="K30" s="2"/>
@@ -3400,8 +3839,12 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="H31" s="18"/>
       <c r="I31" s="2"/>
       <c r="J31" s="18"/>
@@ -3422,8 +3865,12 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="G32" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="18"/>
       <c r="K32" s="2"/>
@@ -3443,12 +3890,14 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="16"/>
-      <c r="G33" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="2"/>
+      <c r="G33" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3465,11 +3914,15 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="2"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3481,16 +3934,20 @@
       <c r="S34" s="2"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3502,13 +3959,15 @@
       <c r="S35" s="2"/>
       <c r="T35" s="7"/>
     </row>
-    <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3523,13 +3982,13 @@
       <c r="S36" s="2"/>
       <c r="T36" s="7"/>
     </row>
-    <row r="37" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3544,39 +4003,102 @@
       <c r="S37" s="2"/>
       <c r="T37" s="7"/>
     </row>
-    <row r="38" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="10"/>
-    </row>
-    <row r="39" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="7"/>
+    </row>
+    <row r="39" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="6"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="7"/>
+    </row>
+    <row r="40" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="6"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="7"/>
+    </row>
+    <row r="41" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G7" location="基础功能!A1" display="基础功能"/>
     <hyperlink ref="G13" location="定位!A1" display="定位"/>
     <hyperlink ref="G16" location="导航条!A1" display="导航条"/>
-    <hyperlink ref="G22" location="楼层选择!A1" display="楼层选择"/>
-    <hyperlink ref="G33" location="变更履历!A1" display="变更履历"/>
-    <hyperlink ref="G25" location="关键字检索!A1" display="关键字检索"/>
-    <hyperlink ref="G27" location="路径规划!A1" display="路径规划"/>
-    <hyperlink ref="G30" location="电子围栏!A1" display="电子围栏"/>
+    <hyperlink ref="G23" location="楼层选择!A1" display="楼层选择"/>
+    <hyperlink ref="G36" location="变更履历!A1" display="变更履历"/>
+    <hyperlink ref="G26" location="关键字检索!A1" display="关键字检索"/>
+    <hyperlink ref="G28" location="路径规划!A1" display="路径规划"/>
+    <hyperlink ref="G31" location="电子围栏!A1" display="电子围栏"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3591,7 +4113,7 @@
   <dimension ref="B1:T31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3738,10 +4260,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -3766,7 +4288,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -3860,7 +4382,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -4022,7 +4544,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4045,10 +4567,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -4073,7 +4595,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -4095,10 +4617,10 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -4141,7 +4663,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4167,7 +4689,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="21"/>
@@ -4192,7 +4714,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="21"/>
@@ -4225,7 +4747,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -4441,7 +4963,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="14"/>
@@ -4466,7 +4988,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="19"/>
@@ -4509,7 +5031,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="19"/>
       <c r="E11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -4532,10 +5054,10 @@
       <c r="C12" s="2"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="14"/>
@@ -4560,7 +5082,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="19"/>
@@ -4614,7 +5136,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -4951,10 +5473,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:T34"/>
+  <dimension ref="B1:T35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5078,10 +5600,10 @@
       <c r="C7" s="2"/>
       <c r="D7" s="19"/>
       <c r="E7" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -5129,7 +5651,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="14"/>
@@ -5154,7 +5676,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="19"/>
@@ -5179,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="14"/>
@@ -5204,7 +5726,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -5247,7 +5769,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="19"/>
       <c r="E14" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -5273,7 +5795,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="14"/>
@@ -5295,10 +5817,10 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="19"/>
@@ -5323,7 +5845,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="14"/>
@@ -5366,7 +5888,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5392,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="14"/>
@@ -5417,7 +5939,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="19"/>
@@ -5442,7 +5964,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="14"/>
@@ -5467,7 +5989,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -5510,11 +6032,11 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -5556,7 +6078,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -5579,10 +6101,10 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -5607,7 +6129,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -5629,10 +6151,10 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -5674,9 +6196,13 @@
       <c r="B32" s="6"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="F32" s="29"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>132</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -5685,41 +6211,63 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="27" t="s">
-        <v>131</v>
-      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G25" location="路径规划!A1" display="传送门"/>
-    <hyperlink ref="P32" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="P33" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="G32" location="电子围栏!A1" display="传送门"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5729,11 +6277,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:T31"/>
+  <dimension ref="B1:T32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5856,7 +6406,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="19"/>
       <c r="E7" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -5878,8 +6428,12 @@
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>165</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5899,16 +6453,20 @@
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="E9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -5920,16 +6478,20 @@
       <c r="B10" s="6"/>
       <c r="C10" s="2"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+      <c r="E10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
@@ -5941,18 +6503,20 @@
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="E11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -5960,18 +6524,18 @@
       <c r="S11" s="2"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
@@ -5985,7 +6549,9 @@
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -6002,11 +6568,11 @@
       <c r="S13" s="2"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="2"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -6023,24 +6589,26 @@
       <c r="S14" s="2"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
       <c r="S15" s="2"/>
       <c r="T15" s="7"/>
     </row>
@@ -6338,30 +6906,54 @@
       <c r="S29" s="2"/>
       <c r="T29" s="7"/>
     </row>
-    <row r="30" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P15" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6459,7 +7051,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -7013,7 +7605,7 @@
   <dimension ref="B1:T31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7098,7 +7690,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -7137,7 +7729,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -7163,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -7185,10 +7777,10 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>97</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>99</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -7211,7 +7803,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="18"/>
       <c r="F10" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -7233,10 +7825,10 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -7279,7 +7871,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -7302,10 +7894,10 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -7328,7 +7920,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -7351,7 +7943,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -7374,7 +7966,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="18"/>
       <c r="F17" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -7397,7 +7989,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="18"/>
       <c r="F18" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -7419,10 +8011,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -7444,10 +8036,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -7469,10 +8061,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -7494,10 +8086,10 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -7519,10 +8111,10 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -7544,10 +8136,10 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -7601,7 +8193,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="27" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -7624,7 +8216,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -7698,7 +8290,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P27" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="P26" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="P27" location="导航条!A25" display="返回导航条"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7708,11 +8301,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:T31"/>
+  <dimension ref="B1:T37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7796,7 +8391,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -7834,7 +8429,9 @@
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -7851,20 +8448,24 @@
       <c r="S7" s="2"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="E8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
@@ -7876,16 +8477,20 @@
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="E9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -7918,7 +8523,9 @@
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -7935,20 +8542,24 @@
       <c r="S11" s="2"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="E12" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -7960,16 +8571,20 @@
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="E13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -7977,20 +8592,24 @@
       <c r="S13" s="2"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="2"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="E14" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -7998,137 +8617,153 @@
       <c r="S14" s="2"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
       <c r="S15" s="2"/>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
       <c r="S16" s="2"/>
       <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="E17" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="7"/>
     </row>
-    <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="E18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="7"/>
     </row>
-    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="E19" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="7"/>
     </row>
-    <row r="21" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="12" t="s">
+        <v>172</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -8145,20 +8780,24 @@
       <c r="S21" s="2"/>
       <c r="T21" s="7"/>
     </row>
-    <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="E22" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -8166,20 +8805,24 @@
       <c r="S22" s="2"/>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="E23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -8187,20 +8830,24 @@
       <c r="S23" s="2"/>
       <c r="T23" s="7"/>
     </row>
-    <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="E24" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -8208,20 +8855,20 @@
       <c r="S24" s="2"/>
       <c r="T24" s="7"/>
     </row>
-    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -8229,11 +8876,13 @@
       <c r="S25" s="2"/>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -8250,20 +8899,24 @@
       <c r="S26" s="2"/>
       <c r="T26" s="7"/>
     </row>
-    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="E27" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -8271,20 +8924,24 @@
       <c r="S27" s="2"/>
       <c r="T27" s="7"/>
     </row>
-    <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="E28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -8292,20 +8949,20 @@
       <c r="S28" s="2"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -8313,30 +8970,174 @@
       <c r="S29" s="2"/>
       <c r="T29" s="7"/>
     </row>
-    <row r="30" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P34" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="P35" location="导航条!A32" display="返回导航条"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
